--- a/data/trans_bre/P5_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_1-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,79%</t>
+          <t>-5,75%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 2,04</t>
+          <t>-8,39; 2,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 2,16</t>
+          <t>-7,42; 3,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 6,64</t>
+          <t>-22,44; 6,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 6,84</t>
+          <t>-19,84; 10,8</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,4</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,31%</t>
+          <t>-10,25%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,96; -0,32</t>
+          <t>-12,61; -0,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 1,39</t>
+          <t>-13,36; 1,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,44; -0,48</t>
+          <t>-19,1; -1,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 2,35</t>
+          <t>-20,4; 2,09</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,66%</t>
+          <t>-5,6%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 12,58</t>
+          <t>-11,82; 12,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,79; 10,34</t>
+          <t>-15,53; 11,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 21,26</t>
+          <t>-16,38; 20,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 16,39</t>
+          <t>-19,68; 18,22</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>-9,16%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -0,74</t>
+          <t>-8,97; -1,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -0,78</t>
+          <t>-8,65; -0,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,04; -1,71</t>
+          <t>-17,03; -2,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,12; -1,53</t>
+          <t>-16,69; -0,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_1-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,07</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-8,91%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,75%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.06705805915462</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.936293974680859</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.08906115818804453</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.08382735071912141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,39; 2,06</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,42; 3,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-22,44; 6,44</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-19,84; 10,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.385918936950256</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.573631741236595</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.224437106196278</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2250507827484254</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.0640869963325</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.561925842031052</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.06444723928558582</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.08095299195126492</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-6,31</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-6,29</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-10,06%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-10,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,61; -0,79</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,36; 1,21</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-19,1; -1,72</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-20,4; 2,09</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-6.309712289037561</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.738005724279071</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1005802535320877</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.07745794949110686</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,99</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,59%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,6%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.60715621526704</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.02577416628027</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1909551446931705</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1840566487259377</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,82; 12,07</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,53; 11,09</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-16,38; 20,68</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,68; 18,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.7899444184400712</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.752935316558487</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.01718340592075211</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.04834454107870097</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-4,72</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,54</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-9,47%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-9,16%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.078311077963234</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.202431710140552</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.01591143977997374</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.04452869440693814</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,97; -1,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,65; -0,23</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-17,03; -2,27</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; -0,5</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.82086310815242</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.76545862993648</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1638384871628017</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1891056256100222</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.07241291516372</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.57521504612188</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.2067971410463929</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.1858472958789263</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-4.723515119801958</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.320655895431347</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.09466418921777905</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.08646954494695393</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.969065129365495</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.528803452963656</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1702888850981675</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1655306328141542</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-1.131874217675183</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.1256655677253671</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.02270289276603527</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.003058695942074544</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
